--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,12 @@
   </si>
   <si>
     <t>Pdgfrb</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.4969653592218</v>
+        <v>18.125705</v>
       </c>
       <c r="H2">
-        <v>16.4969653592218</v>
+        <v>54.377115</v>
       </c>
       <c r="I2">
-        <v>0.8307381754657881</v>
+        <v>0.8312548312180357</v>
       </c>
       <c r="J2">
-        <v>0.8307381754657881</v>
+        <v>0.8312548312180358</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N2">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O2">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P2">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q2">
-        <v>70.7640634692296</v>
+        <v>79.57143410068667</v>
       </c>
       <c r="R2">
-        <v>70.7640634692296</v>
+        <v>716.1429069061799</v>
       </c>
       <c r="S2">
-        <v>0.03513458910547041</v>
+        <v>0.0351578703165069</v>
       </c>
       <c r="T2">
-        <v>0.03513458910547041</v>
+        <v>0.03515787031650691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.4969653592218</v>
+        <v>18.125705</v>
       </c>
       <c r="H3">
-        <v>16.4969653592218</v>
+        <v>54.377115</v>
       </c>
       <c r="I3">
-        <v>0.8307381754657881</v>
+        <v>0.8312548312180357</v>
       </c>
       <c r="J3">
-        <v>0.8307381754657881</v>
+        <v>0.8312548312180358</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N3">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O3">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P3">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q3">
-        <v>866.9820719049079</v>
+        <v>953.5659037745316</v>
       </c>
       <c r="R3">
-        <v>866.9820719049079</v>
+        <v>8582.093133970784</v>
       </c>
       <c r="S3">
-        <v>0.4304594361152502</v>
+        <v>0.4213238929529156</v>
       </c>
       <c r="T3">
-        <v>0.4304594361152502</v>
+        <v>0.4213238929529157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,433 +652,1363 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.4969653592218</v>
+        <v>18.125705</v>
       </c>
       <c r="H4">
-        <v>16.4969653592218</v>
+        <v>54.377115</v>
       </c>
       <c r="I4">
-        <v>0.8307381754657881</v>
+        <v>0.8312548312180357</v>
       </c>
       <c r="J4">
-        <v>0.8307381754657881</v>
+        <v>0.8312548312180358</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>44.5798055134375</v>
+        <v>0.1014806666666667</v>
       </c>
       <c r="N4">
-        <v>44.5798055134375</v>
+        <v>0.304442</v>
       </c>
       <c r="O4">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511412</v>
       </c>
       <c r="P4">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511414</v>
       </c>
       <c r="Q4">
-        <v>735.4315072760235</v>
+        <v>1.839408627203333</v>
       </c>
       <c r="R4">
-        <v>735.4315072760235</v>
+        <v>16.55467764483</v>
       </c>
       <c r="S4">
-        <v>0.3651441502450675</v>
+        <v>0.000812724952178796</v>
       </c>
       <c r="T4">
-        <v>0.3651441502450675</v>
+        <v>0.0008127249521787962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.37182823483326</v>
+        <v>18.125705</v>
       </c>
       <c r="H5">
-        <v>2.37182823483326</v>
+        <v>54.377115</v>
       </c>
       <c r="I5">
-        <v>0.1194382249958589</v>
+        <v>0.8312548312180357</v>
       </c>
       <c r="J5">
-        <v>0.1194382249958589</v>
+        <v>0.8312548312180358</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.28952003767605</v>
+        <v>0.132795</v>
       </c>
       <c r="N5">
-        <v>4.28952003767605</v>
+        <v>0.398385</v>
       </c>
       <c r="O5">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593907</v>
       </c>
       <c r="P5">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593908</v>
       </c>
       <c r="Q5">
-        <v>10.17400473924309</v>
+        <v>2.407002995475</v>
       </c>
       <c r="R5">
-        <v>10.17400473924309</v>
+        <v>21.663026959275</v>
       </c>
       <c r="S5">
-        <v>0.005051426649995148</v>
+        <v>0.001063511046681304</v>
       </c>
       <c r="T5">
-        <v>0.005051426649995148</v>
+        <v>0.001063511046681304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.37182823483326</v>
+        <v>18.125705</v>
       </c>
       <c r="H6">
-        <v>2.37182823483326</v>
+        <v>54.377115</v>
       </c>
       <c r="I6">
-        <v>0.1194382249958589</v>
+        <v>0.8312548312180357</v>
       </c>
       <c r="J6">
-        <v>0.1194382249958589</v>
+        <v>0.8312548312180358</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>52.5540336071728</v>
+        <v>0.1953733333333333</v>
       </c>
       <c r="N6">
-        <v>52.5540336071728</v>
+        <v>0.58612</v>
       </c>
       <c r="O6">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="P6">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="Q6">
-        <v>124.6491407638685</v>
+        <v>3.541279404866666</v>
       </c>
       <c r="R6">
-        <v>124.6491407638685</v>
+        <v>31.8715146438</v>
       </c>
       <c r="S6">
-        <v>0.0618887063345762</v>
+        <v>0.001564680132738045</v>
       </c>
       <c r="T6">
-        <v>0.0618887063345762</v>
+        <v>0.001564680132738046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.37182823483326</v>
+        <v>18.125705</v>
       </c>
       <c r="H7">
-        <v>2.37182823483326</v>
+        <v>54.377115</v>
       </c>
       <c r="I7">
-        <v>0.1194382249958589</v>
+        <v>0.8312548312180357</v>
       </c>
       <c r="J7">
-        <v>0.1194382249958589</v>
+        <v>0.8312548312180358</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.5798055134375</v>
+        <v>46.36628199999999</v>
       </c>
       <c r="N7">
-        <v>44.5798055134375</v>
+        <v>139.098846</v>
       </c>
       <c r="O7">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160336</v>
       </c>
       <c r="P7">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160338</v>
       </c>
       <c r="Q7">
-        <v>105.7356414201465</v>
+        <v>840.4215494788099</v>
       </c>
       <c r="R7">
-        <v>105.7356414201465</v>
+        <v>7563.793945309289</v>
       </c>
       <c r="S7">
-        <v>0.05249809201128753</v>
+        <v>0.371332151817015</v>
       </c>
       <c r="T7">
-        <v>0.05249809201128753</v>
+        <v>0.3713321518170152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.989407035730717</v>
+        <v>2.50062</v>
       </c>
       <c r="H8">
-        <v>0.989407035730717</v>
+        <v>7.501860000000001</v>
       </c>
       <c r="I8">
-        <v>0.04982359953835305</v>
+        <v>0.1146798127874444</v>
       </c>
       <c r="J8">
-        <v>0.04982359953835305</v>
+        <v>0.1146798127874444</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N8">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O8">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P8">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q8">
-        <v>4.244081305184574</v>
+        <v>10.97766511928</v>
       </c>
       <c r="R8">
-        <v>4.244081305184574</v>
+        <v>98.79898607352</v>
       </c>
       <c r="S8">
-        <v>0.002107200257835787</v>
+        <v>0.004850375401721671</v>
       </c>
       <c r="T8">
-        <v>0.002107200257835787</v>
+        <v>0.004850375401721673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.989407035730717</v>
+        <v>2.50062</v>
       </c>
       <c r="H9">
-        <v>0.989407035730717</v>
+        <v>7.501860000000001</v>
       </c>
       <c r="I9">
-        <v>0.04982359953835305</v>
+        <v>0.1146798127874444</v>
       </c>
       <c r="J9">
-        <v>0.04982359953835305</v>
+        <v>0.1146798127874444</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N9">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O9">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P9">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q9">
-        <v>51.99733060696532</v>
+        <v>131.55383309486</v>
       </c>
       <c r="R9">
-        <v>51.99733060696532</v>
+        <v>1183.98449785374</v>
       </c>
       <c r="S9">
-        <v>0.02581684482055531</v>
+        <v>0.05812579169725645</v>
       </c>
       <c r="T9">
-        <v>0.02581684482055531</v>
+        <v>0.05812579169725648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.50062</v>
+      </c>
+      <c r="H10">
+        <v>7.501860000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1146798127874444</v>
+      </c>
+      <c r="J10">
+        <v>0.1146798127874444</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.304442</v>
+      </c>
+      <c r="O10">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P10">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q10">
+        <v>0.25376458468</v>
+      </c>
+      <c r="R10">
+        <v>2.28388126212</v>
+      </c>
+      <c r="S10">
+        <v>0.0001121234329874254</v>
+      </c>
+      <c r="T10">
+        <v>0.0001121234329874254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.50062</v>
+      </c>
+      <c r="H11">
+        <v>7.501860000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1146798127874444</v>
+      </c>
+      <c r="J11">
+        <v>0.1146798127874444</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.132795</v>
+      </c>
+      <c r="N11">
+        <v>0.398385</v>
+      </c>
+      <c r="O11">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P11">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q11">
+        <v>0.3320698329</v>
+      </c>
+      <c r="R11">
+        <v>2.9886284961</v>
+      </c>
+      <c r="S11">
+        <v>0.0001467218512908713</v>
+      </c>
+      <c r="T11">
+        <v>0.0001467218512908714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.50062</v>
+      </c>
+      <c r="H12">
+        <v>7.501860000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1146798127874444</v>
+      </c>
+      <c r="J12">
+        <v>0.1146798127874444</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.58612</v>
+      </c>
+      <c r="O12">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P12">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q12">
+        <v>0.4885544648</v>
+      </c>
+      <c r="R12">
+        <v>4.3969901832</v>
+      </c>
+      <c r="S12">
+        <v>0.00021586307586532</v>
+      </c>
+      <c r="T12">
+        <v>0.0002158630758653201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.50062</v>
+      </c>
+      <c r="H13">
+        <v>7.501860000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1146798127874444</v>
+      </c>
+      <c r="J13">
+        <v>0.1146798127874444</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N13">
+        <v>139.098846</v>
+      </c>
+      <c r="O13">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P13">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q13">
+        <v>115.94445209484</v>
+      </c>
+      <c r="R13">
+        <v>1043.50006885356</v>
+      </c>
+      <c r="S13">
+        <v>0.05122893732832263</v>
+      </c>
+      <c r="T13">
+        <v>0.05122893732832266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.989407035730717</v>
-      </c>
-      <c r="H10">
-        <v>0.989407035730717</v>
-      </c>
-      <c r="I10">
-        <v>0.04982359953835305</v>
-      </c>
-      <c r="J10">
-        <v>0.04982359953835305</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>44.5798055134375</v>
-      </c>
-      <c r="N10">
-        <v>44.5798055134375</v>
-      </c>
-      <c r="O10">
-        <v>0.4395417967163169</v>
-      </c>
-      <c r="P10">
-        <v>0.4395417967163169</v>
-      </c>
-      <c r="Q10">
-        <v>44.10757322650207</v>
-      </c>
-      <c r="R10">
-        <v>44.10757322650207</v>
-      </c>
-      <c r="S10">
-        <v>0.02189955445996196</v>
-      </c>
-      <c r="T10">
-        <v>0.02189955445996196</v>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03725033333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.111751</v>
+      </c>
+      <c r="I14">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="J14">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N14">
+        <v>13.169932</v>
+      </c>
+      <c r="O14">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P14">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q14">
+        <v>0.1635281189924445</v>
+      </c>
+      <c r="R14">
+        <v>1.471753070932</v>
+      </c>
+      <c r="S14">
+        <v>7.225332137867122E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.225332137867123E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03725033333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.111751</v>
+      </c>
+      <c r="I15">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="J15">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N15">
+        <v>157.825459</v>
+      </c>
+      <c r="O15">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P15">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q15">
+        <v>1.959683652078778</v>
+      </c>
+      <c r="R15">
+        <v>17.637152868709</v>
+      </c>
+      <c r="S15">
+        <v>0.000865867311301478</v>
+      </c>
+      <c r="T15">
+        <v>0.0008658673113014783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03725033333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.111751</v>
+      </c>
+      <c r="I16">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="J16">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.304442</v>
+      </c>
+      <c r="O16">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P16">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q16">
+        <v>0.003780188660222222</v>
+      </c>
+      <c r="R16">
+        <v>0.034021697942</v>
+      </c>
+      <c r="S16">
+        <v>1.670239881813013E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.670239881813014E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03725033333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.111751</v>
+      </c>
+      <c r="I17">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="J17">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.132795</v>
+      </c>
+      <c r="N17">
+        <v>0.398385</v>
+      </c>
+      <c r="O17">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P17">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q17">
+        <v>0.004946658015</v>
+      </c>
+      <c r="R17">
+        <v>0.044519922135</v>
+      </c>
+      <c r="S17">
+        <v>2.185633110136175E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.185633110136175E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03725033333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.111751</v>
+      </c>
+      <c r="I18">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="J18">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.58612</v>
+      </c>
+      <c r="O18">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P18">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q18">
+        <v>0.007277721791111112</v>
+      </c>
+      <c r="R18">
+        <v>0.06549949612</v>
+      </c>
+      <c r="S18">
+        <v>3.215591145532625E-06</v>
+      </c>
+      <c r="T18">
+        <v>3.215591145532626E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03725033333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.111751</v>
+      </c>
+      <c r="I19">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="J19">
+        <v>0.0017083208376069</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N19">
+        <v>139.098846</v>
+      </c>
+      <c r="O19">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P19">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q19">
+        <v>1.727159459927333</v>
+      </c>
+      <c r="R19">
+        <v>15.544435139346</v>
+      </c>
+      <c r="S19">
+        <v>0.0007631287407892685</v>
+      </c>
+      <c r="T19">
+        <v>0.000763128740789269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.141657333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.424972</v>
+      </c>
+      <c r="I20">
+        <v>0.05235703515691294</v>
+      </c>
+      <c r="J20">
+        <v>0.05235703515691295</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N20">
+        <v>13.169932</v>
+      </c>
+      <c r="O20">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P20">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q20">
+        <v>5.011849815767111</v>
+      </c>
+      <c r="R20">
+        <v>45.106648341904</v>
+      </c>
+      <c r="S20">
+        <v>0.002214437478223464</v>
+      </c>
+      <c r="T20">
+        <v>0.002214437478223464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.141657333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.424972</v>
+      </c>
+      <c r="I21">
+        <v>0.05235703515691294</v>
+      </c>
+      <c r="J21">
+        <v>0.05235703515691295</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N21">
+        <v>157.825459</v>
+      </c>
+      <c r="O21">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P21">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q21">
+        <v>60.06086421801644</v>
+      </c>
+      <c r="R21">
+        <v>540.547777962148</v>
+      </c>
+      <c r="S21">
+        <v>0.02653731328509674</v>
+      </c>
+      <c r="T21">
+        <v>0.02653731328509675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.141657333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.424972</v>
+      </c>
+      <c r="I22">
+        <v>0.05235703515691294</v>
+      </c>
+      <c r="J22">
+        <v>0.05235703515691295</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.304442</v>
+      </c>
+      <c r="O22">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P22">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q22">
+        <v>0.1158561472915556</v>
+      </c>
+      <c r="R22">
+        <v>1.042705325624</v>
+      </c>
+      <c r="S22">
+        <v>5.118992070310673E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.118992070310675E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.141657333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.424972</v>
+      </c>
+      <c r="I23">
+        <v>0.05235703515691294</v>
+      </c>
+      <c r="J23">
+        <v>0.05235703515691295</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.132795</v>
+      </c>
+      <c r="N23">
+        <v>0.398385</v>
+      </c>
+      <c r="O23">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P23">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q23">
+        <v>0.15160638558</v>
+      </c>
+      <c r="R23">
+        <v>1.36445747022</v>
+      </c>
+      <c r="S23">
+        <v>6.698581851159555E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.698581851159557E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.141657333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.424972</v>
+      </c>
+      <c r="I24">
+        <v>0.05235703515691294</v>
+      </c>
+      <c r="J24">
+        <v>0.05235703515691295</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.58612</v>
+      </c>
+      <c r="O24">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P24">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q24">
+        <v>0.2230493987377777</v>
+      </c>
+      <c r="R24">
+        <v>2.00744458864</v>
+      </c>
+      <c r="S24">
+        <v>9.855222447134401E-05</v>
+      </c>
+      <c r="T24">
+        <v>9.855222447134405E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.141657333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.424972</v>
+      </c>
+      <c r="I25">
+        <v>0.05235703515691294</v>
+      </c>
+      <c r="J25">
+        <v>0.05235703515691295</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N25">
+        <v>139.098846</v>
+      </c>
+      <c r="O25">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P25">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q25">
+        <v>52.93440586470132</v>
+      </c>
+      <c r="R25">
+        <v>476.4096527823119</v>
+      </c>
+      <c r="S25">
+        <v>0.02338855642990669</v>
+      </c>
+      <c r="T25">
+        <v>0.0233885564299067</v>
       </c>
     </row>
   </sheetData>
